--- a/REVER_DailyTracker_20201016.xlsx
+++ b/REVER_DailyTracker_20201016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C214FE-AE93-4000-B47D-E7FF12855A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E7404-E080-4039-8A72-E22ADEAA0BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17928" windowHeight="10860" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="79">
   <si>
     <t>Task</t>
   </si>
@@ -216,6 +216,63 @@
   </si>
   <si>
     <t>2 Correction of Password Management task is pending</t>
+  </si>
+  <si>
+    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>QMVAR , Hayaai</t>
+  </si>
+  <si>
+    <t>Application- login design and Hayaai Flyer design</t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Two sample Flyer design</t>
+  </si>
+  <si>
+    <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
+  </si>
+  <si>
+    <t>Analysis - File Upload - Design completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai </t>
+  </si>
+  <si>
+    <t>Website Translation replaced in php file</t>
+  </si>
+  <si>
+    <t>Hayaai ,QMVAR</t>
+  </si>
+  <si>
+    <t>1) Contact Card 2 samples designed                                      2) QMVAR - 2pages design completed</t>
+  </si>
+  <si>
+    <t>1) Acknowledgement screen designed                                      2) QMVAR - Activity Report page design completed</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>QMVAR -Analysis Data page design and alignment issues completed</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing, Retesting on B2C app and Hayaai site</t>
   </si>
 </sst>
 </file>
@@ -225,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +330,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -492,6 +555,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -1931,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1992,46 +2077,317 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="53">
+        <v>44106</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
+      <c r="B4" s="53">
+        <v>44107</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
+      <c r="B5" s="53">
+        <v>44108</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21">
+        <v>44120</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2281,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2593,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2710,54 +3066,266 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="20" spans="2:3" s="4" customFormat="1"/>
-    <row r="21" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3" s="4" customFormat="1"/>
-    <row r="25" spans="2:3">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="60">
+        <v>44120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="1:7" s="4" customFormat="1"/>
+    <row r="20" spans="1:7" s="4" customFormat="1"/>
+    <row r="21" spans="1:7" s="4" customFormat="1"/>
+    <row r="22" spans="1:7" s="4" customFormat="1"/>
+    <row r="25" spans="1:7">
       <c r="C25" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:7">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:7">
       <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:7">
       <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:7">
       <c r="B29" s="11"/>
       <c r="C29" t="s">
         <v>10</v>

--- a/REVER_DailyTracker_20201016.xlsx
+++ b/REVER_DailyTracker_20201016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E7404-E080-4039-8A72-E22ADEAA0BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B44399-B4A2-4FE7-A585-A78EC3771634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17928" windowHeight="10860" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="87">
   <si>
     <t>Task</t>
   </si>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing, Retesting on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>creating Setup file</t>
+  </si>
+  <si>
+    <t>Layout Designing</t>
+  </si>
+  <si>
+    <t>Emplogin</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils and responisble view</t>
+  </si>
+  <si>
+    <t>stored management added in Monthly target</t>
+  </si>
+  <si>
+    <t>adding layout in analysis file upload</t>
+  </si>
+  <si>
+    <t>adding layout in analysis file Export</t>
   </si>
 </sst>
 </file>
@@ -441,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -576,6 +600,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2638,7 +2665,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2783,24 +2810,230 @@
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1"/>
+    <row r="22" spans="1:7">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:7">
       <c r="B23" s="43" t="s">
         <v>3</v>
       </c>
@@ -2808,13 +3041,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:7">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:7">
       <c r="B25" s="25" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +3055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:7">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>10</v>

--- a/REVER_DailyTracker_20201016.xlsx
+++ b/REVER_DailyTracker_20201016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B44399-B4A2-4FE7-A585-A78EC3771634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBDB195-7D1F-4484-AEBE-D73355767417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="108">
   <si>
     <t>Task</t>
   </si>
@@ -297,6 +297,69 @@
   </si>
   <si>
     <t>adding layout in analysis file Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, SONY SID, QMVAR Setup File Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, QMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, EMP_RegLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony SID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR Recovery(CSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR (CSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> best_search_all8, best_report_all8, SID Sony </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, QMVAR Setup File Create, QMVAR CSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, MrMax import File Check, QMVAR CSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Employee RegLogin Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, SONY SID (export import checking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, CSS QMVAR (Recovery Menu), Sony File Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony File Export selenium, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, QMVAR migration, Sony File Export Selenium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Son Seleniumy File Export</t>
+  </si>
+  <si>
+    <t>Sony SID Issue File Checking</t>
+  </si>
+  <si>
+    <t>QMVAR CSS Progress</t>
+  </si>
+  <si>
+    <t>Salary tab Page (Modification) Add Column</t>
+  </si>
+  <si>
+    <t>Employee RegLogin Application All Pages design Changes(Personal Info, Education &amp; experience , Bank Details Completed) tabs Completed</t>
+  </si>
+  <si>
+    <t>Sony Daily RepairSetNp, LogFile Selenium</t>
+  </si>
+  <si>
+    <t>Sony Export,LogFile Selenium</t>
   </si>
 </sst>
 </file>
@@ -2539,15 +2602,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -2590,7 +2653,7 @@
       <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="22">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2600,24 +2663,236 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21">
+        <v>44120</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
     <row r="15" spans="1:7" s="4" customFormat="1"/>
@@ -2664,7 +2939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/REVER_DailyTracker_20201016.xlsx
+++ b/REVER_DailyTracker_20201016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBDB195-7D1F-4484-AEBE-D73355767417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA83CC40-51EC-4CAC-B0E2-01CB47D906D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -360,6 +360,24 @@
   </si>
   <si>
     <t>Sony Export,LogFile Selenium</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount Summary &amp; Details</t>
+  </si>
+  <si>
+    <t>DRS - Daily Revenue</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Go through Soica Project MDB File Application</t>
+  </si>
+  <si>
+    <t>Check Suma Email and Start work application</t>
   </si>
 </sst>
 </file>
@@ -369,7 +387,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +444,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -528,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -666,6 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -988,15 +1015,15 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1020,7 +1047,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1093,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1195,7 +1222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1206,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1323,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1394,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1414,7 +1441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8">
+    <row r="40" spans="1:6" ht="30">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1434,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8">
+    <row r="41" spans="1:6" ht="45">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1508,15 +1535,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1619,15 +1646,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1725,19 +1752,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1806,93 +1833,213 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44111</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44112</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>44113</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>44116</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>44117</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>44118</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="33">
+        <v>44119</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33">
+        <v>44120</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
@@ -2001,15 +2148,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2112,15 +2259,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2212,7 +2359,7 @@
       <c r="F5" s="55"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2233,7 +2380,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2254,7 +2401,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2296,7 +2443,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2389,7 +2536,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2410,7 +2557,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -2431,7 +2578,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="28.8">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -2495,15 +2642,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2602,19 +2749,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2640,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2663,7 +2810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2686,7 +2833,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2709,7 +2856,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2732,7 +2879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2755,7 +2902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2778,7 +2925,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2801,7 +2948,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2847,7 +2994,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2943,15 +3090,15 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -3350,15 +3497,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3461,15 +3608,15 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3495,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3561,7 +3708,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3582,7 +3729,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3603,7 +3750,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3624,7 +3771,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3645,7 +3792,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3700,7 +3847,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3721,7 +3868,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3742,7 +3889,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3763,7 +3910,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A16" s="1">
         <v>15</v>
       </c>

--- a/REVER_DailyTracker_20201016.xlsx
+++ b/REVER_DailyTracker_20201016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA83CC40-51EC-4CAC-B0E2-01CB47D906D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D35494D-1E88-40AF-B46B-A7C1477886CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="132">
   <si>
     <t>Task</t>
   </si>
@@ -378,6 +378,66 @@
   </si>
   <si>
     <t>Check Suma Email and Start work application</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>Worked on to overcome the security certificate confirmation through Windows registry Key</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAYAAI-B2B </t>
+  </si>
+  <si>
+    <t>To display JobSheet details in B2C ,Repairs tab,
+First call userissues API,in which you will get eq_stock_id.
+Pass that eq_Stock_id to this new acknowldgesheet API</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>have modified the msg and have passed customer address in Push Notification.</t>
   </si>
 </sst>
 </file>
@@ -552,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -693,6 +753,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,15 +1081,15 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1047,7 +1113,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1120,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1222,7 +1288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1233,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1350,7 +1416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1421,7 +1487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1441,7 +1507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="28.8">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1461,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="28.8">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1535,15 +1601,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1646,15 +1712,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1752,19 +1818,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2144,19 +2210,702 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52">
+        <v>43992</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52">
+        <v>44022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="216">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52">
+        <v>44053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="52">
+        <v>44084</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="52">
+        <v>44175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="100.8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="100.8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="53">
+        <v>44106</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="53">
+        <v>44107</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53">
+        <v>44108</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21">
+        <v>44120</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2251,23 +3000,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2293,336 +3042,290 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="53">
-        <v>44106</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="53">
-        <v>44107</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="53">
-        <v>44108</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="53">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="53">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="20">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21">
+      <c r="B12" s="21">
         <v>44120</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="C12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>10</v>
@@ -2634,23 +3337,430 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1"/>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2745,861 +3855,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21">
-        <v>44120</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="31">
-        <v>44120</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1"/>
-    <row r="22" spans="1:7">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
@@ -3608,15 +3863,15 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3642,7 +3897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3708,7 +3963,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3729,7 +3984,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3750,7 +4005,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3771,7 +4026,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3792,7 +4047,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3847,7 +4102,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3868,7 +4123,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3889,7 +4144,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3910,7 +4165,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
